--- a/rpabasic/excel/range_chart.xlsx
+++ b/rpabasic/excel/range_chart.xlsx
@@ -195,6 +195,137 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="20"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -214,6 +345,28 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -541,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -552,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -574,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -596,10 +749,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -607,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -618,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -629,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -640,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
